--- a/词汇/数据库导入/026.-ple(t)-=-plet-=-pli-=-ply-=-plen(i)-to fill,full装满（的）.xlsx
+++ b/词汇/数据库导入/026.-ple(t)-=-plet-=-pli-=-ply-=-plen(i)-to fill,full装满（的）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="150">
   <si>
     <t>Word</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -114,6 +120,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -170,6 +182,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -208,6 +226,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -246,6 +270,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -284,6 +314,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -358,6 +394,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -432,6 +474,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -467,6 +515,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -502,6 +556,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -540,6 +600,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -578,6 +644,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -617,6 +689,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -652,6 +730,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -687,6 +771,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -731,6 +821,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -766,6 +862,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -801,6 +903,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -842,6 +950,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -913,6 +1027,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -951,6 +1071,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -995,6 +1121,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1066,6 +1198,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -1101,6 +1239,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1145,6 +1289,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vi. </t>
     </r>
     <r>
@@ -1184,6 +1334,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1222,6 +1378,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -1256,10 +1418,60 @@
     <t>【com强调+pli满--完全执行，遵守+ant形容词后缀】</t>
   </si>
   <si>
-    <t>noncompliant [,nɒnkəm'plaɪənt]</t>
-  </si>
-  <si>
-    <r>
+    <t>compliance [kəm'plaɪəns]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺从，服从；承诺【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4589</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ance名词后缀】</t>
+  </si>
+  <si>
+    <t>noncompliance [,nɒnkəm'plaɪəns]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1269,16 +1481,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>固执的人【词频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>30963</t>
+      <t>不顺从，不服从【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16795</t>
     </r>
     <r>
       <rPr>
@@ -1291,10 +1503,90 @@
     </r>
   </si>
   <si>
-    <t>compliance [kəm'plaɪəns]</t>
-  </si>
-  <si>
-    <r>
+    <t>implement ['ɪmplɪm(ə)nt]</t>
+  </si>
+  <si>
+    <t>implement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vt. 实施，执行；实现，使生效n. 工具，器具；手段【词频2299，14317】【X11M6】</t>
+  </si>
+  <si>
+    <t>【im进入，使+ple满的，词源同full,complet,引申词义装满，提供，提供工具，贯彻，实施等】</t>
+  </si>
+  <si>
+    <t>implementation [ɪmplɪmen'teɪʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现；履行；安装启用【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3556</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ation复合名词后缀】</t>
+  </si>
+  <si>
+    <t>implementer ['implimentə]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -1304,16 +1596,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>顺从，服从；承诺【词频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4589</t>
+      <t>实施者；制订人；实现器；实作器【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40359</t>
     </r>
     <r>
       <rPr>
@@ -1326,13 +1618,66 @@
     </r>
   </si>
   <si>
-    <t>【ance名词后缀】</t>
-  </si>
-  <si>
-    <t>noncompliance [,nɒnkəm'plaɪəns]</t>
-  </si>
-  <si>
-    <r>
+    <t>【er名词后缀，表人或物】</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>suppl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sə'plaɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1342,16 +1687,96 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>不顺从，不服从【词频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>16795</t>
+      <t>供给，补给；供应品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>供给，提供；补充</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>供给；替代</t>
+    </r>
+  </si>
+  <si>
+    <t>【sup下，+ply充满--从下方充满--补充】</t>
+  </si>
+  <si>
+    <t>supplemental [,sʌplɪ'mentəl]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补充的（等于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>supplementary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）；追加的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10525</t>
     </r>
     <r>
       <rPr>
@@ -1364,336 +1789,6 @@
     </r>
   </si>
   <si>
-    <t>implement ['ɪmplɪm(ə)nt]</t>
-  </si>
-  <si>
-    <t>implement</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vt. 实施，执行；实现，使生效n. 工具，器具；手段【词频2299，14317】【X11M6】</t>
-  </si>
-  <si>
-    <t>【im进入，使+ple满的，词源同full,complet,引申词义装满，提供，提供工具，贯彻，实施等】</t>
-  </si>
-  <si>
-    <t>implementation [ɪmplɪmen'teɪʃ(ə)n]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> n. [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实现；履行；安装启用【词频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3556</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
-    <t>【ation复合名词后缀】</t>
-  </si>
-  <si>
-    <t>implementer ['implimentə]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">n. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实施者；制订人；实现器；实作器【词频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>40359</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
-    <t>【er名词后缀，表人或物】</t>
-  </si>
-  <si>
-    <r>
-      <t>suppl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">y </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sə'plaɪ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> n. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>供给，补给；供应品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">vt. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>供给，提供；补充</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">vi. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>供给；替代</t>
-    </r>
-  </si>
-  <si>
-    <t>【sup下，+ply充满--从下方充满--补充】</t>
-  </si>
-  <si>
-    <t>supplement ['sʌplɪm(ə)nt]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> vt. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>增补，补充</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">n. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>增补，补充；补充物；增刊，副刊【词频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5246</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6702</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
-    <t>【借用于拉丁语动词supplere（供应）的派生名词supplementum,</t>
-  </si>
-  <si>
-    <t>supplemental [,sʌplɪ'mentəl]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">adj. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>补充的（等于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>supplementary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）；追加的【词频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10525</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
     <t>【al形容词后缀】</t>
   </si>
   <si>
@@ -1707,6 +1802,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1801,6 +1902,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -1839,6 +1946,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -1874,6 +1987,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adv. </t>
     </r>
     <r>
@@ -1951,6 +2070,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vt. </t>
     </r>
     <r>
@@ -2025,6 +2150,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2060,6 +2191,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2098,6 +2235,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2172,6 +2315,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2210,6 +2359,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2248,6 +2403,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2304,6 +2465,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -2378,6 +2545,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2452,6 +2625,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2509,10 +2688,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2541,6 +2720,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2550,7 +2784,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2571,19 +2819,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2596,22 +2850,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2624,66 +2863,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2694,7 +2873,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2712,13 +2909,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2730,25 +3017,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2760,49 +3029,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2814,67 +3053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2903,6 +3082,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2922,6 +3116,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2942,6 +3147,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2956,50 +3179,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3008,10 +3187,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3020,34 +3199,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3059,94 +3235,97 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3526,10 +3705,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A29" sqref="$A29:$XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3537,7 +3716,7 @@
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="5.375" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="4" max="4" width="81.125" customWidth="1"/>
     <col min="5" max="5" width="64.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4019,12 +4198,12 @@
         <v>86</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
         <v>75</v>
@@ -4033,146 +4212,146 @@
         <v>76</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" spans="1:5">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
       <c r="E31" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" ht="25.5" spans="1:5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
         <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
         <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
         <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" ht="54" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
         <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" ht="54" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="6" t="s">
         <v>116</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4183,7 +4362,7 @@
         <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>118</v>
@@ -4197,194 +4376,160 @@
         <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
         <v>129</v>
-      </c>
-      <c r="B43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" t="s">
-        <v>126</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>130</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47" s="5" t="s">
         <v>142</v>
+      </c>
+      <c r="E47" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="3" t="s">
+      <c r="E49" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
